--- a/premise/data/additional_inventories/lci-fuel_cell.xlsx
+++ b/premise/data/additional_inventories/lci-fuel_cell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FABFB6-6015-8245-AA03-700DDAA311F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D3A902-2DF3-7246-834B-A7B8D52775A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="119">
   <si>
     <t>Database</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>hazardous waste, for incineration</t>
+  </si>
+  <si>
+    <t>0.75g/kWe platinum</t>
   </si>
 </sst>
 </file>
@@ -833,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1285,6 +1288,10 @@
       <c r="B22" s="12" t="s">
         <v>56</v>
       </c>
+      <c r="D22" s="12">
+        <f>B39*1000</f>
+        <v>0.75</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -1991,6 +1998,9 @@
       </c>
       <c r="G39" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="I39" s="12">
         <v>2</v>

--- a/premise/data/additional_inventories/lci-fuel_cell.xlsx
+++ b/premise/data/additional_inventories/lci-fuel_cell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D3A902-2DF3-7246-834B-A7B8D52775A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5837726-9215-7840-AA19-E4C5029AEA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="127">
   <si>
     <t>Database</t>
   </si>
@@ -172,22 +172,10 @@
     <t>carbon black</t>
   </si>
   <si>
-    <t>market for injection moulding</t>
-  </si>
-  <si>
-    <t>injection moulding</t>
-  </si>
-  <si>
     <t>market for cast iron</t>
   </si>
   <si>
     <t>cast iron</t>
-  </si>
-  <si>
-    <t>market for glass fibre</t>
-  </si>
-  <si>
-    <t>glass fibre</t>
   </si>
   <si>
     <t>IAI Area, EU27 &amp; EFTA</t>
@@ -230,21 +218,9 @@
     <t>fuel cell Balance of Plant, 1 kWe, proton exchange membrane (PEM)</t>
   </si>
   <si>
-    <t>market for graphite</t>
-  </si>
-  <si>
-    <t>graphite</t>
-  </si>
-  <si>
-    <t>market for polyvinylidenchloride, granulate</t>
-  </si>
-  <si>
     <t>RoW</t>
   </si>
   <si>
-    <t>polyvinylidenchloride, granulate</t>
-  </si>
-  <si>
     <t>market for aluminium, primary, ingot</t>
   </si>
   <si>
@@ -257,9 +233,6 @@
     <t>metal working, average for aluminium product manufacturing</t>
   </si>
   <si>
-    <t>Under-floor heating system</t>
-  </si>
-  <si>
     <t>market for steel, chromium steel 18/8</t>
   </si>
   <si>
@@ -341,9 +314,6 @@
     <t>potassium chloride</t>
   </si>
   <si>
-    <t>sodium chloride electrolysis</t>
-  </si>
-  <si>
     <t>sodium</t>
   </si>
   <si>
@@ -392,16 +362,68 @@
     <t>hazardous waste, for incineration</t>
   </si>
   <si>
-    <t>0.75g/kWe platinum</t>
+    <t>Mitja Mori, Diego Iribarren, Julie Cren, Emmanuelle Cor, Andrej Lotrič, Jure Gramc, Boštjan Drobnič, Laurent Rey, Felipe Campos-Carriedo, Gonzalo Puig-Samper, Eleonora Bargiacchi, Javier Dufour, Rok Stropnik,
+Life cycle sustainability assessment of a proton exchange membrane fuel cell technology for ecodesign purposes, International Journal of Hydrogen Energy, Volume 48, Issue 99, 2023, Pages 39673-39689, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2023.05.255.</t>
+  </si>
+  <si>
+    <t>market for silicone product</t>
+  </si>
+  <si>
+    <t>silicone product</t>
+  </si>
+  <si>
+    <t>carbon fiber production, weaved, at factory</t>
+  </si>
+  <si>
+    <t>carbon fiber, weaved</t>
+  </si>
+  <si>
+    <t>packaging film production, low density polyethylene</t>
+  </si>
+  <si>
+    <t>packaging film, low density polyethylene</t>
+  </si>
+  <si>
+    <t>LCI for a PEMFC fuel cell stack. Original size: 48 kWe, but normalized here to 1 kWe. Regarding geographical and time scope, production in Europe was considered based on current conditions. The reference year of the data is 2021 and data sets could be considered valid until 2024. The stack consists of 280 membrane electrode assembly (MEA) units with an active area of 200 cm2 each. The amount of Pt in the stack is 0.5425 g/kW, with a power density of 1.36 kW/kg. Operational time was set to 20,000 h at power of 1 kWe. Due to the degradation effects the hydrogen consumption must be increased to always generate the power of 1 kWe. In the case of dynamic operational regime 5 replacements (Nd = 5) of the PEMFC stack are included (lifetime of 3'800 hours per stack).</t>
+  </si>
+  <si>
+    <t>LCI for a PEMFC fuel cell Balance of Plant. Operational time was set to 20,000 h at power of 1 kWe. Due to the degradation effects the hydrogen consumption must be increased to always generate the power of 1 kWe. In the case of dynamic operational regime 5 replacements (Nd = 5) of the PEMFC stack are included (lifetime of 3'800 hours per stack).</t>
+  </si>
+  <si>
+    <t>0.54g/kWe platinum</t>
+  </si>
+  <si>
+    <t>market for water, deionised</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>market for ethoxylated alcohol (AE&gt;20)</t>
+  </si>
+  <si>
+    <t>ethoxylated alcohol (AE&gt;20)</t>
+  </si>
+  <si>
+    <t>market for glass fibre reinforced plastic, polyamide, injection moulded</t>
+  </si>
+  <si>
+    <t>glass fibre reinforced plastic, polyamide, injection moulded</t>
+  </si>
+  <si>
+    <t>market for copper, anode</t>
+  </si>
+  <si>
+    <t>copper, anode</t>
+  </si>
+  <si>
+    <t>sodium production, sodium chloride electrolysis, molten salt cell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +529,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -545,11 +567,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -834,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T362"/>
+  <dimension ref="A1:T366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -887,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -929,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -943,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -968,10 +991,10 @@
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -985,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1096,7 +1119,7 @@
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" s="17">
         <f>20000/3800</f>
@@ -1112,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I14" s="12">
         <v>2</v>
@@ -1159,7 +1182,7 @@
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="17">
         <v>1</v>
@@ -1174,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I15" s="12">
         <v>2</v>
@@ -1230,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -1272,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1286,11 +1309,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="12">
-        <f>B39*1000</f>
-        <v>0.75</v>
+        <v>52</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1315,10 +1334,10 @@
     </row>
     <row r="24" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -1332,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -1443,13 +1462,14 @@
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B29" s="12">
-        <v>4.5</v>
+        <f>26.34/1000</f>
+        <v>2.6339999999999999E-2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>13</v>
@@ -1458,14 +1478,14 @@
         <v>12</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="I29" s="12">
         <v>2</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J40" si="2">LN(B29)</f>
-        <v>1.5040773967762742</v>
+        <f>LN(B29)</f>
+        <v>-3.6366665826670022</v>
       </c>
       <c r="K29" s="20">
         <v>1.5</v>
@@ -1489,7 +1509,7 @@
         <v>1.05</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:R40" si="3">LN(SQRT(EXP(
+        <f t="shared" ref="R29:R30" si="2">LN(SQRT(EXP(
 SQRT(
 +POWER(LN(K29),2)
 +POWER(LN(L29),2)
@@ -1505,13 +1525,14 @@
     </row>
     <row r="30" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="12">
-        <v>1.1000000000000001</v>
+        <f>450.47/1000</f>
+        <v>0.45047000000000004</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>13</v>
@@ -1520,14 +1541,14 @@
         <v>12</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I30" s="12">
         <v>2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
-        <v>9.5310179804324935E-2</v>
+        <f t="shared" ref="J30" si="3">LN(B30)</f>
+        <v>-0.79746379682594071</v>
       </c>
       <c r="K30" s="20">
         <v>1.5</v>
@@ -1551,20 +1572,20 @@
         <v>1.05</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="31">
-        <f>B30/0.994</f>
-        <v>1.1066398390342054</v>
+        <v>111</v>
+      </c>
+      <c r="B31" s="12">
+        <f>26.02/1000</f>
+        <v>2.6019999999999998E-2</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>13</v>
@@ -1573,14 +1594,14 @@
         <v>12</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I31" s="12">
         <v>2</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
-        <v>0.10132825212988801</v>
+        <f t="shared" ref="J31" si="4">LN(B31)</f>
+        <v>-3.6488898058977779</v>
       </c>
       <c r="K31" s="20">
         <v>1.5</v>
@@ -1604,19 +1625,30 @@
         <v>1.05</v>
       </c>
       <c r="R31">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R31" si="5">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K31),2)
++POWER(LN(L31),2)
++POWER(LN(M31),2)
++POWER(LN(N31),2)
++POWER(LN(O31),2)
++POWER(LN(P31),2)
++POWER(LN(Q31),2)
+)
+)))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B32" s="12">
-        <v>0.3</v>
+        <f>37.92/1000</f>
+        <v>3.7920000000000002E-2</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>13</v>
@@ -1625,14 +1657,14 @@
         <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="I32" s="12">
         <v>2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
-        <v>-1.2039728043259361</v>
+        <f t="shared" ref="J32:J35" si="6">LN(B32)</f>
+        <v>-3.272276601595316</v>
       </c>
       <c r="K32" s="20">
         <v>1.5</v>
@@ -1656,17 +1688,27 @@
         <v>1.05</v>
       </c>
       <c r="R32">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R32:R35" si="7">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K32),2)
++POWER(LN(L32),2)
++POWER(LN(M32),2)
++POWER(LN(N32),2)
++POWER(LN(O32),2)
++POWER(LN(P32),2)
++POWER(LN(Q32),2)
+)
+)))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B33" s="12">
-        <f>B32</f>
-        <v>0.3</v>
+        <f>0.54/1000</f>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>16</v>
@@ -1678,17 +1720,17 @@
         <v>12</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I33" s="12">
         <v>2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
-        <v>-1.2039728043259361</v>
+        <f t="shared" si="6"/>
+        <v>-7.5239414184059541</v>
       </c>
       <c r="K33" s="20">
         <v>1.5</v>
@@ -1712,16 +1754,17 @@
         <v>1.05</v>
       </c>
       <c r="R33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B34" s="12">
-        <v>0.1</v>
+        <f>0.81/1000</f>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>16</v>
@@ -1733,14 +1776,14 @@
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I34" s="12">
         <v>2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
-        <v>-2.3025850929940455</v>
+        <f t="shared" si="6"/>
+        <v>-7.1184763102977895</v>
       </c>
       <c r="K34" s="20">
         <v>1.5</v>
@@ -1764,20 +1807,20 @@
         <v>1.05</v>
       </c>
       <c r="R34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" s="12">
-        <f>B34</f>
-        <v>0.1</v>
+        <f>3/1000</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>13</v>
@@ -1786,17 +1829,14 @@
         <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I35" s="12">
         <v>2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
-        <v>-2.3025850929940455</v>
+        <f t="shared" si="6"/>
+        <v>-5.8091429903140277</v>
       </c>
       <c r="K35" s="20">
         <v>1.5</v>
@@ -1820,19 +1860,20 @@
         <v>1.05</v>
       </c>
       <c r="R35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B36" s="12">
-        <v>0.1</v>
+        <f>10.21/1000</f>
+        <v>1.021E-2</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>13</v>
@@ -1841,14 +1882,14 @@
         <v>12</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I36" s="12">
         <v>2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>-2.3025850929940455</v>
+        <f t="shared" ref="J36:J40" si="8">LN(B36)</f>
+        <v>-4.5843876468055624</v>
       </c>
       <c r="K36" s="20">
         <v>1.5</v>
@@ -1872,19 +1913,30 @@
         <v>1.05</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R36:R40" si="9">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K36),2)
++POWER(LN(L36),2)
++POWER(LN(M36),2)
++POWER(LN(N36),2)
++POWER(LN(O36),2)
++POWER(LN(P36),2)
++POWER(LN(Q36),2)
+)
+)))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B37" s="12">
-        <v>7.0000000000000007E-2</v>
+        <f>4.58/1000</f>
+        <v>4.5799999999999999E-3</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>13</v>
@@ -1893,14 +1945,14 @@
         <v>12</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="I37" s="12">
         <v>2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
-        <v>-2.6592600369327779</v>
+        <f t="shared" si="8"/>
+        <v>-5.3860562808560433</v>
       </c>
       <c r="K37" s="20">
         <v>1.5</v>
@@ -1924,16 +1976,17 @@
         <v>1.05</v>
       </c>
       <c r="R37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B38" s="12">
-        <v>8.0000000000000004E-4</v>
+        <f>79.17/1000</f>
+        <v>7.9170000000000004E-2</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>16</v>
@@ -1945,14 +1998,14 @@
         <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I38" s="12">
         <v>2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
-        <v>-7.1308988302963465</v>
+        <f t="shared" si="8"/>
+        <v>-2.5361578397987947</v>
       </c>
       <c r="K38" s="20">
         <v>1.5</v>
@@ -1976,16 +2029,17 @@
         <v>1.05</v>
       </c>
       <c r="R38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B39" s="12">
-        <v>7.5000000000000002E-4</v>
+        <f>17.75/1000</f>
+        <v>1.7749999999999998E-2</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>16</v>
@@ -1997,17 +2051,14 @@
         <v>12</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="I39" s="12">
         <v>2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
-        <v>-7.1954373514339176</v>
+        <f t="shared" si="8"/>
+        <v>-4.0313697630607122</v>
       </c>
       <c r="K39" s="20">
         <v>1.5</v>
@@ -2031,35 +2082,39 @@
         <v>1.05</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B40" s="12">
-        <v>16.899999999999999</v>
+        <f>B39</f>
+        <v>1.7749999999999998E-2</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="I40" s="12">
         <v>2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
-        <v>2.8273136219290276</v>
+        <f t="shared" si="8"/>
+        <v>-4.0313697630607122</v>
       </c>
       <c r="K40" s="20">
         <v>1.5</v>
@@ -2083,67 +2138,235 @@
         <v>1.05</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="A41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="12">
+        <f>19.79/1000</f>
+        <v>1.9789999999999999E-2</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J44" si="10">LN(B41)</f>
+        <v>-3.9225785193676628</v>
+      </c>
+      <c r="K41" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L41" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M41" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N41" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O41" s="20">
+        <v>2</v>
+      </c>
+      <c r="P41" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q41">
+        <v>1.05</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:R44" si="11">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K41),2)
++POWER(LN(L41),2)
++POWER(LN(M41),2)
++POWER(LN(N41),2)
++POWER(LN(O41),2)
++POWER(LN(P41),2)
++POWER(LN(Q41),2)
+)
+)))</f>
+        <v>0.47095746419981693</v>
+      </c>
     </row>
     <row r="42" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
+      <c r="A42" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="12">
+        <f>58.75/1000</f>
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="12">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="10"/>
+        <v>-2.8344641259578687</v>
+      </c>
+      <c r="K42" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L42" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M42" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N42" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O42" s="20">
+        <v>2</v>
+      </c>
+      <c r="P42" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q42">
+        <v>1.05</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="11"/>
+        <v>0.47095746419981693</v>
+      </c>
     </row>
     <row r="43" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="12">
+        <f>B42</f>
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="D43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="12">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="10"/>
+        <v>-2.8344641259578687</v>
+      </c>
+      <c r="K43" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L43" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M43" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N43" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O43" s="20">
+        <v>2</v>
+      </c>
+      <c r="P43" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q43">
+        <v>1.05</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="11"/>
+        <v>0.47095746419981693</v>
+      </c>
     </row>
     <row r="44" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B44" s="12">
-        <v>1</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
+        <v>8.5</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="12">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="10"/>
+        <v>2.1400661634962708</v>
+      </c>
+      <c r="K44" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L44" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M44" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N44" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O44" s="20">
+        <v>2</v>
+      </c>
+      <c r="P44" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q44">
+        <v>1.05</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="11"/>
+        <v>0.47095746419981693</v>
+      </c>
     </row>
     <row r="45" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
@@ -2152,11 +2375,11 @@
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>56</v>
+      <c r="A46" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -2167,10 +2390,10 @@
     </row>
     <row r="47" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
@@ -2181,10 +2404,10 @@
     </row>
     <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="B48" s="12">
+        <v>1</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -2195,7 +2418,7 @@
     </row>
     <row r="49" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>59</v>
@@ -2208,8 +2431,11 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>7</v>
+      <c r="A50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -2219,86 +2445,25 @@
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="A51" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S51" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="T51" s="8"/>
+      <c r="B51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="str">
-        <f>B42</f>
-        <v>fuel cell Balance of Plant production, 1 kWe, proton exchange membrane (PEM)</v>
-      </c>
-      <c r="B52" s="12">
-        <v>1</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="12" t="str">
-        <f>B47</f>
-        <v>unit</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="12" t="str">
-        <f>B45</f>
-        <v>fuel cell Balance of Plant, 1 kWe, proton exchange membrane (PEM)</v>
+      <c r="A52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
@@ -2309,282 +2474,187 @@
     </row>
     <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="12">
+        <v>11</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P55" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S55" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="str">
+        <f>B46</f>
+        <v>fuel cell Balance of Plant production, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="12" t="str">
+        <f>B51</f>
+        <v>unit</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="12" t="str">
+        <f>B49</f>
+        <v>fuel cell Balance of Plant, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="12">
         <v>3.7</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F57" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="12">
-        <v>2</v>
-      </c>
-      <c r="J53">
-        <f t="shared" ref="J53:J62" si="4">LN(B53)</f>
+      <c r="G57" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="12">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J66" si="12">LN(B57)</f>
         <v>1.3083328196501789</v>
       </c>
-      <c r="K53" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L53" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M53" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N53" s="20">
+      <c r="K57" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M57" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N57" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O53" s="20">
-        <v>2</v>
-      </c>
-      <c r="P53" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q53">
+      <c r="O57" s="20">
+        <v>2</v>
+      </c>
+      <c r="P57" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q57">
         <v>1.05</v>
       </c>
-      <c r="R53">
-        <f t="shared" ref="R53:R62" si="5">LN(SQRT(EXP(
+      <c r="R57">
+        <f t="shared" ref="R57:R66" si="13">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K53),2)
-+POWER(LN(L53),2)
-+POWER(LN(M53),2)
-+POWER(LN(N53),2)
-+POWER(LN(O53),2)
-+POWER(LN(P53),2)
-+POWER(LN(Q53),2)
++POWER(LN(K57),2)
++POWER(LN(L57),2)
++POWER(LN(M57),2)
++POWER(LN(N57),2)
++POWER(LN(O57),2)
++POWER(LN(P57),2)
++POWER(LN(Q57),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="12">
-        <f>B53</f>
-        <v>3.7</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I54" s="12">
-        <v>2</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="4"/>
-        <v>1.3083328196501789</v>
-      </c>
-      <c r="K54" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L54" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M54" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N54" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O54" s="20">
-        <v>2</v>
-      </c>
-      <c r="P54" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q54">
-        <v>1.05</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="5"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="12">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="4"/>
-        <v>0.40546510810816438</v>
-      </c>
-      <c r="K55" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L55" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M55" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N55" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O55" s="20">
-        <v>2</v>
-      </c>
-      <c r="P55" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q55">
-        <v>1.05</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="5"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="12">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="4"/>
-        <v>9.5310179804324935E-2</v>
-      </c>
-      <c r="K56" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L56" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M56" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N56" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O56" s="20">
-        <v>2</v>
-      </c>
-      <c r="P56" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q56">
-        <v>1.05</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="5"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="12">
-        <f>B56</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I57" s="12">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="4"/>
-        <v>9.5310179804324935E-2</v>
-      </c>
-      <c r="K57" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L57" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M57" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N57" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O57" s="20">
-        <v>2</v>
-      </c>
-      <c r="P57" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q57">
-        <v>1.05</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="5"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
     <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B58" s="12">
-        <v>0.8</v>
+        <f>B57</f>
+        <v>3.7</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>16</v>
@@ -2596,14 +2666,14 @@
         <v>12</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I58" s="12">
         <v>2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
-        <v>-0.22314355131420971</v>
+        <f t="shared" si="12"/>
+        <v>1.3083328196501789</v>
       </c>
       <c r="K58" s="20">
         <v>1.5</v>
@@ -2627,19 +2697,19 @@
         <v>1.05</v>
       </c>
       <c r="R58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B59" s="12">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>13</v>
@@ -2648,14 +2718,14 @@
         <v>12</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I59" s="12">
         <v>2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
-        <v>-0.2876820724517809</v>
+        <f t="shared" si="12"/>
+        <v>0.40546510810816438</v>
       </c>
       <c r="K59" s="20">
         <v>1.5</v>
@@ -2679,17 +2749,16 @@
         <v>1.05</v>
       </c>
       <c r="R59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B60" s="12">
-        <f>B59</f>
-        <v>0.75</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>16</v>
@@ -2701,14 +2770,14 @@
         <v>12</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I60" s="12">
         <v>2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
-        <v>-0.2876820724517809</v>
+        <f t="shared" si="12"/>
+        <v>9.5310179804324935E-2</v>
       </c>
       <c r="K60" s="20">
         <v>1.5</v>
@@ -2732,16 +2801,17 @@
         <v>1.05</v>
       </c>
       <c r="R60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="13">
-        <v>0.25</v>
+        <v>67</v>
+      </c>
+      <c r="B61" s="12">
+        <f>B60</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>16</v>
@@ -2753,15 +2823,14 @@
         <v>12</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="11"/>
+        <v>68</v>
+      </c>
       <c r="I61" s="12">
         <v>2</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
-        <v>-1.3862943611198906</v>
+        <f t="shared" si="12"/>
+        <v>9.5310179804324935E-2</v>
       </c>
       <c r="K61" s="20">
         <v>1.5</v>
@@ -2785,35 +2854,35 @@
         <v>1.05</v>
       </c>
       <c r="R61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B62" s="12">
-        <v>16.899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I62" s="12">
         <v>2</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
-        <v>2.8273136219290276</v>
+        <f t="shared" si="12"/>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="K62" s="20">
         <v>1.5</v>
@@ -2837,82 +2906,234 @@
         <v>1.05</v>
       </c>
       <c r="R62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="A63" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="12">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="12"/>
+        <v>-0.2876820724517809</v>
+      </c>
+      <c r="K63" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L63" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M63" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N63" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O63" s="20">
+        <v>2</v>
+      </c>
+      <c r="P63" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q63">
+        <v>1.05</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="13"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12">
+        <f>B63</f>
+        <v>0.75</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="12">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="12"/>
+        <v>-0.2876820724517809</v>
+      </c>
+      <c r="K64" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L64" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M64" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N64" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O64" s="20">
+        <v>2</v>
+      </c>
+      <c r="P64" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q64">
+        <v>1.05</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="13"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="12"/>
+        <v>-1.3862943611198906</v>
+      </c>
+      <c r="K65" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L65" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M65" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N65" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O65" s="20">
+        <v>2</v>
+      </c>
+      <c r="P65" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q65">
+        <v>1.05</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="13"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="12">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="12"/>
+        <v>2.8273136219290276</v>
+      </c>
+      <c r="K66" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L66" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M66" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N66" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O66" s="20">
+        <v>2</v>
+      </c>
+      <c r="P66" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q66">
+        <v>1.05</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="13"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I64"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65"/>
-      <c r="I65"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="I66"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-    </row>
-    <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>80</v>
+      <c r="B68" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="I68"/>
       <c r="K68" s="20"/>
@@ -2924,11 +3145,9 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B69"/>
       <c r="I69"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -2939,10 +3158,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
       </c>
       <c r="I70"/>
       <c r="K70" s="20"/>
@@ -2954,10 +3173,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I71"/>
       <c r="K71" s="20"/>
@@ -2967,12 +3186,12 @@
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="I72"/>
       <c r="K72" s="20"/>
@@ -2982,11 +3201,13 @@
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
     </row>
-    <row r="73" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73"/>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
       <c r="I73"/>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
@@ -2995,389 +3216,227 @@
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
     </row>
-    <row r="74" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="8" t="s">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="8" t="s">
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L74" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N74" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O74" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P74" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S74" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>80</v>
+      <c r="B75" t="s">
+        <v>75</v>
       </c>
       <c r="I75"/>
-      <c r="J75" s="12"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
-      <c r="T75" s="12"/>
-    </row>
-    <row r="76" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+    </row>
+    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77"/>
+      <c r="I77"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+    </row>
+    <row r="78" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P78" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S78" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T78" s="8"/>
+    </row>
+    <row r="79" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="T79" s="12"/>
+    </row>
+    <row r="80" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4">
         <v>0.93</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C80" t="s">
         <v>16</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D80" t="s">
         <v>13</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F80" t="s">
         <v>12</v>
       </c>
-      <c r="G76" t="s">
-        <v>86</v>
-      </c>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-      <c r="I76" s="12">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <f t="shared" ref="J76:J91" si="6">LN(B76)</f>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80" s="12">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80:J95" si="14">LN(B80)</f>
         <v>-7.2570692834835374E-2</v>
       </c>
-      <c r="K76" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L76" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M76" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N76" s="20">
+      <c r="K80" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L80" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M80" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N80" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O76" s="20">
-        <v>2</v>
-      </c>
-      <c r="P76" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q76">
+      <c r="O80" s="20">
+        <v>2</v>
+      </c>
+      <c r="P80" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q80">
         <v>1.05</v>
       </c>
-      <c r="R76">
-        <f t="shared" ref="R76:R91" si="7">LN(SQRT(EXP(
+      <c r="R80">
+        <f t="shared" ref="R80:R95" si="15">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K76),2)
-+POWER(LN(L76),2)
-+POWER(LN(M76),2)
-+POWER(LN(N76),2)
-+POWER(LN(O76),2)
-+POWER(LN(P76),2)
-+POWER(LN(Q76),2)
++POWER(LN(K80),2)
++POWER(LN(L80),2)
++POWER(LN(M80),2)
++POWER(LN(N80),2)
++POWER(LN(O80),2)
++POWER(LN(P80),2)
++POWER(LN(Q80),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>53</v>
-      </c>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-      <c r="I77" s="12">
-        <v>2</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="6"/>
-        <v>-3.473768074496991</v>
-      </c>
-      <c r="K77" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L77" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M77" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N77" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O77" s="20">
-        <v>2</v>
-      </c>
-      <c r="P77" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q77">
-        <v>1.05</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="7"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-      <c r="I78" s="12">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="6"/>
-        <v>-3.473768074496991</v>
-      </c>
-      <c r="K78" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L78" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M78" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N78" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O78" s="20">
-        <v>2</v>
-      </c>
-      <c r="P78" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q78">
-        <v>1.05</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="7"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" t="s">
-        <v>88</v>
-      </c>
-      <c r="I79" s="12">
-        <v>2</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="6"/>
-        <v>-3.473768074496991</v>
-      </c>
-      <c r="K79" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L79" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M79" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N79" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O79" s="20">
-        <v>2</v>
-      </c>
-      <c r="P79" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q79">
-        <v>1.05</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="7"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="12">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="6"/>
-        <v>-3.473768074496991</v>
-      </c>
-      <c r="K80" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L80" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M80" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N80" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O80" s="20">
-        <v>2</v>
-      </c>
-      <c r="P80" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q80">
-        <v>1.05</v>
-      </c>
-      <c r="R80">
-        <f t="shared" si="7"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
     <row r="81" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B81" s="4">
-        <v>1</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -3386,14 +3445,17 @@
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>49</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
       </c>
       <c r="I81" s="12">
         <v>2</v>
       </c>
       <c r="J81">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-3.473768074496991</v>
       </c>
       <c r="K81" s="20">
         <v>1.5</v>
@@ -3417,19 +3479,19 @@
         <v>1.05</v>
       </c>
       <c r="R81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
-        <v>96</v>
+      <c r="A82" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>9.2999999999999992E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -3438,17 +3500,17 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I82" s="12">
         <v>2</v>
       </c>
       <c r="J82">
-        <f t="shared" si="6"/>
-        <v>-4.6777408788229264</v>
+        <f t="shared" si="14"/>
+        <v>-3.473768074496991</v>
       </c>
       <c r="K82" s="20">
         <v>1.5</v>
@@ -3472,19 +3534,19 @@
         <v>1.05</v>
       </c>
       <c r="R82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="33" t="s">
-        <v>99</v>
+      <c r="A83" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="B83" s="4">
-        <v>4.1000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -3493,17 +3555,17 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I83" s="12">
         <v>2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="6"/>
-        <v>-3.1941832122778293</v>
+        <f t="shared" si="14"/>
+        <v>-3.473768074496991</v>
       </c>
       <c r="K83" s="20">
         <v>1.5</v>
@@ -3527,19 +3589,19 @@
         <v>1.05</v>
       </c>
       <c r="R83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="33" t="s">
-        <v>101</v>
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -3548,17 +3610,17 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I84" s="12">
         <v>2</v>
       </c>
       <c r="J84">
-        <f t="shared" si="6"/>
-        <v>-4.3428059215206005</v>
+        <f t="shared" si="14"/>
+        <v>-3.473768074496991</v>
       </c>
       <c r="K84" s="20">
         <v>1.5</v>
@@ -3582,38 +3644,35 @@
         <v>1.05</v>
       </c>
       <c r="R84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I85" s="12">
         <v>2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="6"/>
-        <v>-3.5065578973199818</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K85" s="20">
         <v>1.5</v>
@@ -3637,38 +3696,38 @@
         <v>1.05</v>
       </c>
       <c r="R85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="33" t="s">
-        <v>22</v>
+      <c r="A86" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1.1000000000000001</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I86" s="12">
         <v>2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="6"/>
-        <v>9.5310179804324935E-2</v>
+        <f t="shared" si="14"/>
+        <v>-4.6777408788229264</v>
       </c>
       <c r="K86" s="20">
         <v>1.5</v>
@@ -3692,35 +3751,38 @@
         <v>1.05</v>
       </c>
       <c r="R86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>106</v>
+      <c r="A87" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>4.0000000000000001E-10</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="H87" t="s">
+        <v>89</v>
       </c>
       <c r="I87" s="12">
         <v>2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="6"/>
-        <v>-21.639556568820566</v>
+        <f t="shared" si="14"/>
+        <v>-3.1941832122778293</v>
       </c>
       <c r="K87" s="20">
         <v>1.5</v>
@@ -3741,41 +3803,41 @@
         <v>1.2</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="R87">
-        <f t="shared" si="7"/>
-        <v>0.72314801614797197</v>
+        <f t="shared" si="15"/>
+        <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
-        <v>108</v>
+      <c r="A88" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="B88" s="4">
-        <v>0.83</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I88" s="12">
         <v>2</v>
       </c>
       <c r="J88">
-        <f t="shared" si="6"/>
-        <v>-0.18632957819149348</v>
+        <f t="shared" si="14"/>
+        <v>-4.3428059215206005</v>
       </c>
       <c r="K88" s="20">
         <v>1.5</v>
@@ -3796,41 +3858,41 @@
         <v>1.2</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="R88">
-        <f t="shared" si="7"/>
-        <v>0.58422518478336083</v>
+        <f t="shared" si="15"/>
+        <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B89" s="4">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I89" s="12">
         <v>2</v>
       </c>
       <c r="J89">
-        <f t="shared" si="6"/>
-        <v>-1.5606477482646683</v>
+        <f t="shared" si="14"/>
+        <v>-3.5065578973199818</v>
       </c>
       <c r="K89" s="20">
         <v>1.5</v>
@@ -3851,35 +3913,41 @@
         <v>1.2</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="R89">
-        <f t="shared" si="7"/>
-        <v>0.58422518478336083</v>
+        <f t="shared" si="15"/>
+        <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="33" t="s">
-        <v>115</v>
+      <c r="A90" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B90" s="4">
-        <v>5.5000000000000003E-4</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>95</v>
       </c>
       <c r="I90" s="12">
         <v>2</v>
       </c>
       <c r="J90">
-        <f t="shared" si="6"/>
-        <v>-7.5055922797377574</v>
+        <f t="shared" si="14"/>
+        <v>9.5310179804324935E-2</v>
       </c>
       <c r="K90" s="20">
         <v>1.5</v>
@@ -3899,39 +3967,39 @@
       <c r="P90" s="20">
         <v>1.2</v>
       </c>
-      <c r="Q90" s="20">
-        <v>1.5</v>
+      <c r="Q90">
+        <v>1.05</v>
       </c>
       <c r="R90">
-        <f t="shared" si="7"/>
-        <v>0.51215847306170115</v>
+        <f t="shared" si="15"/>
+        <v>0.47095746419981693</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B91" s="4">
-        <v>3.2000000000000001E-2</v>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="I91" s="12">
         <v>2</v>
       </c>
       <c r="J91">
-        <f t="shared" si="6"/>
-        <v>-3.4420193761824103</v>
+        <f t="shared" si="14"/>
+        <v>-21.639556568820566</v>
       </c>
       <c r="K91" s="20">
         <v>1.5</v>
@@ -3952,74 +4020,233 @@
         <v>1.2</v>
       </c>
       <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="15"/>
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" t="s">
+        <v>101</v>
+      </c>
+      <c r="I92" s="12">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="14"/>
+        <v>-0.18632957819149348</v>
+      </c>
+      <c r="K92" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L92" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M92" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N92" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O92" s="20">
+        <v>2</v>
+      </c>
+      <c r="P92" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="15"/>
+        <v>0.58422518478336083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>103</v>
+      </c>
+      <c r="H93" t="s">
+        <v>104</v>
+      </c>
+      <c r="I93" s="12">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="14"/>
+        <v>-1.5606477482646683</v>
+      </c>
+      <c r="K93" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L93" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M93" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N93" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O93" s="20">
+        <v>2</v>
+      </c>
+      <c r="P93" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="15"/>
+        <v>0.58422518478336083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="4">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="12">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="14"/>
+        <v>-7.5055922797377574</v>
+      </c>
+      <c r="K94" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L94" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M94" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N94" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O94" s="20">
+        <v>2</v>
+      </c>
+      <c r="P94" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q94" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="15"/>
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="12">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="14"/>
+        <v>-3.4420193761824103</v>
+      </c>
+      <c r="K95" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L95" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M95" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N95" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O95" s="20">
+        <v>2</v>
+      </c>
+      <c r="P95" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q95">
         <v>1.05</v>
       </c>
-      <c r="R91">
-        <f t="shared" si="7"/>
+      <c r="R95">
+        <f t="shared" si="15"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-    </row>
-    <row r="93" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B93" s="17"/>
-      <c r="H93" s="11"/>
-      <c r="J93"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93"/>
-      <c r="R93"/>
-    </row>
-    <row r="94" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B94" s="17"/>
-      <c r="H94" s="11"/>
-      <c r="J94"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94"/>
-      <c r="R94"/>
-    </row>
-    <row r="95" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B95" s="17"/>
-      <c r="H95" s="11"/>
-      <c r="J95"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95"/>
-      <c r="R95"/>
-    </row>
     <row r="96" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B96" s="17"/>
-      <c r="H96" s="11"/>
-      <c r="J96"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96"/>
-      <c r="R96"/>
-    </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+    </row>
+    <row r="97" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="17"/>
       <c r="H97" s="11"/>
       <c r="J97"/>
@@ -4032,10 +4259,8 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="30"/>
-      <c r="G98" s="11"/>
+    <row r="98" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="17"/>
       <c r="H98" s="11"/>
       <c r="J98"/>
       <c r="K98" s="20"/>
@@ -4047,10 +4272,8 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="D99" s="11"/>
-      <c r="G99" s="11"/>
+    <row r="99" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" s="17"/>
       <c r="H99" s="11"/>
       <c r="J99"/>
       <c r="K99" s="20"/>
@@ -4062,10 +4285,8 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
-      <c r="D100" s="11"/>
-      <c r="G100" s="11"/>
+    <row r="100" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" s="17"/>
       <c r="H100" s="11"/>
       <c r="J100"/>
       <c r="K100" s="20"/>
@@ -4077,9 +4298,9 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="17"/>
-      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
       <c r="J101"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -4090,47 +4311,65 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B102" s="17"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-    </row>
-    <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-    </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-    </row>
-    <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
+    <row r="102" spans="1:18" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="29"/>
+      <c r="B102" s="30"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="J102"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="30"/>
+      <c r="D103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="J103"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+    </row>
+    <row r="104" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="30"/>
+      <c r="D104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="J104"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+    </row>
+    <row r="105" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="17"/>
+      <c r="G105" s="11"/>
+      <c r="J105"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="17"/>
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
@@ -4139,75 +4378,49 @@
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
+    <row r="107" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="26"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
     </row>
-    <row r="108" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
-      <c r="B108" s="17"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
+      <c r="B108" s="15"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="26"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
     </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
+    <row r="109" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
       <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
+      <c r="L109" s="26"/>
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
       <c r="P109" s="13"/>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="8"/>
-    </row>
-    <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="E111" s="11"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
+    <row r="110" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="14"/>
+      <c r="B110" s="17"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+    </row>
+    <row r="111" spans="1:18" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
@@ -4215,55 +4428,73 @@
       <c r="O111" s="13"/>
       <c r="P111" s="13"/>
     </row>
-    <row r="112" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="14"/>
       <c r="B112" s="17"/>
-      <c r="J112"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="20"/>
-      <c r="R112"/>
-    </row>
-    <row r="113" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B113" s="17"/>
-      <c r="J113"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113"/>
-    </row>
-    <row r="114" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B114" s="17"/>
-      <c r="J114"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
-      <c r="Q114" s="20"/>
-      <c r="R114"/>
-    </row>
-    <row r="115" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+    </row>
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+    </row>
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="18"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="8"/>
+    </row>
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
       <c r="B115" s="17"/>
-      <c r="J115"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="20"/>
-      <c r="R115"/>
-    </row>
-    <row r="116" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E115" s="11"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+    </row>
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="J116"/>
       <c r="K116" s="20"/>
@@ -4275,7 +4506,7 @@
       <c r="Q116" s="20"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="J117"/>
       <c r="K117" s="20"/>
@@ -4287,7 +4518,7 @@
       <c r="Q117" s="20"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="J118"/>
       <c r="K118" s="20"/>
@@ -4299,7 +4530,7 @@
       <c r="Q118" s="20"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="J119"/>
       <c r="K119" s="20"/>
@@ -4311,7 +4542,7 @@
       <c r="Q119" s="20"/>
       <c r="R119"/>
     </row>
-    <row r="120" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="J120"/>
       <c r="K120" s="20"/>
@@ -4323,7 +4554,7 @@
       <c r="Q120" s="20"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="J121"/>
       <c r="K121" s="20"/>
@@ -4335,7 +4566,7 @@
       <c r="Q121" s="20"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="J122"/>
       <c r="K122" s="20"/>
@@ -4347,7 +4578,7 @@
       <c r="Q122" s="20"/>
       <c r="R122"/>
     </row>
-    <row r="123" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="J123"/>
       <c r="K123" s="20"/>
@@ -4359,7 +4590,7 @@
       <c r="Q123" s="20"/>
       <c r="R123"/>
     </row>
-    <row r="124" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="J124"/>
       <c r="K124" s="20"/>
@@ -4371,7 +4602,7 @@
       <c r="Q124" s="20"/>
       <c r="R124"/>
     </row>
-    <row r="125" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="J125"/>
       <c r="K125" s="20"/>
@@ -4383,7 +4614,7 @@
       <c r="Q125" s="20"/>
       <c r="R125"/>
     </row>
-    <row r="126" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="J126"/>
       <c r="K126" s="20"/>
@@ -4395,7 +4626,7 @@
       <c r="Q126" s="20"/>
       <c r="R126"/>
     </row>
-    <row r="127" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="J127"/>
       <c r="K127" s="20"/>
@@ -4407,7 +4638,7 @@
       <c r="Q127" s="20"/>
       <c r="R127"/>
     </row>
-    <row r="128" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="J128"/>
       <c r="K128" s="20"/>
@@ -4601,47 +4832,54 @@
     </row>
     <row r="144" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
-      <c r="M144" s="13"/>
-      <c r="N144" s="13"/>
-      <c r="O144" s="13"/>
-      <c r="P144" s="13"/>
+      <c r="J144"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144"/>
     </row>
     <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="11"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
-      <c r="O145" s="13"/>
-      <c r="P145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="J145"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145"/>
     </row>
     <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
-      <c r="O146" s="13"/>
-      <c r="P146" s="13"/>
+      <c r="B146" s="17"/>
+      <c r="J146"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146"/>
     </row>
     <row r="147" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
+      <c r="B147" s="17"/>
+      <c r="J147"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147"/>
     </row>
     <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="14"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="17"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -4650,8 +4888,9 @@
       <c r="P148" s="13"/>
     </row>
     <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="14"/>
-      <c r="B149" s="15"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="11"/>
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
@@ -4661,10 +4900,7 @@
     </row>
     <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
-      <c r="B150" s="17"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
+      <c r="B150" s="15"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -4673,16 +4909,8 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="18"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
@@ -4691,100 +4919,94 @@
       <c r="P151" s="13"/>
     </row>
     <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="24"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="8"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="8"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="16"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
+      <c r="O152" s="13"/>
+      <c r="P152" s="13"/>
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="E153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
       <c r="P153" s="13"/>
-      <c r="T153"/>
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="17"/>
-      <c r="J154"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
-      <c r="Q154"/>
-      <c r="R154"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="17"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="13"/>
+      <c r="O154" s="13"/>
+      <c r="P154" s="13"/>
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="17"/>
-      <c r="J155"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="20"/>
-      <c r="O155" s="20"/>
-      <c r="P155" s="20"/>
-      <c r="Q155"/>
-      <c r="R155"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="13"/>
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="14"/>
-      <c r="B156" s="17"/>
-      <c r="E156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="J156"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="20"/>
-      <c r="O156" s="20"/>
-      <c r="P156" s="20"/>
-      <c r="Q156"/>
-      <c r="R156"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="8"/>
+      <c r="R156" s="8"/>
+      <c r="S156" s="18"/>
+      <c r="T156" s="8"/>
     </row>
     <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="14"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="E157" s="11"/>
-      <c r="G157" s="14"/>
       <c r="H157" s="11"/>
-      <c r="J157"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="20"/>
-      <c r="Q157"/>
-      <c r="R157"/>
+      <c r="I157" s="11"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
+      <c r="O157" s="13"/>
+      <c r="P157" s="13"/>
+      <c r="T157"/>
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="14"/>
-      <c r="B158" s="17"/>
-      <c r="H158" s="21"/>
+      <c r="A158" s="17"/>
       <c r="J158"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
@@ -4796,14 +5018,7 @@
       <c r="R158"/>
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="22"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="23"/>
+      <c r="A159" s="17"/>
       <c r="J159"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
@@ -4811,50 +5026,74 @@
       <c r="N159" s="20"/>
       <c r="O159" s="20"/>
       <c r="P159" s="20"/>
-      <c r="Q159" s="20"/>
+      <c r="Q159"/>
       <c r="R159"/>
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="14"/>
       <c r="B160" s="17"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
+      <c r="E160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="J160"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="20"/>
+      <c r="Q160"/>
+      <c r="R160"/>
     </row>
     <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
-      <c r="K161" s="13"/>
-      <c r="L161" s="13"/>
-      <c r="M161" s="13"/>
-      <c r="N161" s="13"/>
-      <c r="O161" s="13"/>
-      <c r="P161" s="13"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="17"/>
+      <c r="E161" s="11"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="11"/>
+      <c r="J161"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161"/>
+      <c r="R161"/>
     </row>
     <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
-      <c r="K162" s="13"/>
-      <c r="L162" s="13"/>
-      <c r="M162" s="13"/>
-      <c r="N162" s="13"/>
-      <c r="O162" s="13"/>
-      <c r="P162" s="13"/>
+      <c r="B162" s="17"/>
+      <c r="H162" s="21"/>
+      <c r="J162"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="20"/>
+      <c r="Q162"/>
+      <c r="R162"/>
     </row>
     <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="13"/>
-      <c r="M163" s="13"/>
-      <c r="N163" s="13"/>
-      <c r="O163" s="13"/>
-      <c r="P163" s="13"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="23"/>
+      <c r="J163"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
+      <c r="O163" s="20"/>
+      <c r="P163" s="20"/>
+      <c r="Q163" s="20"/>
+      <c r="R163"/>
     </row>
     <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="14"/>
       <c r="B164" s="17"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
@@ -4864,8 +5103,8 @@
       <c r="P164" s="13"/>
     </row>
     <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="10"/>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
@@ -4875,7 +5114,7 @@
     </row>
     <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
-      <c r="B166" s="17"/>
+      <c r="B166" s="15"/>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
@@ -4884,16 +5123,8 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="18"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
@@ -4902,30 +5133,18 @@
       <c r="P167" s="13"/>
     </row>
     <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="18"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="8"/>
-      <c r="R168" s="8"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="8"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="17"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
+      <c r="O168" s="13"/>
+      <c r="P168" s="13"/>
     </row>
     <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
@@ -4934,57 +5153,67 @@
       <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B170" s="13"/>
-      <c r="J170"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
-      <c r="M170" s="20"/>
-      <c r="N170" s="20"/>
-      <c r="O170" s="20"/>
-      <c r="P170" s="20"/>
-      <c r="Q170"/>
-      <c r="R170"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="17"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="13"/>
+      <c r="M170" s="13"/>
+      <c r="N170" s="13"/>
+      <c r="O170" s="13"/>
+      <c r="P170" s="13"/>
     </row>
     <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B171" s="13"/>
-      <c r="J171"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="20"/>
-      <c r="N171" s="20"/>
-      <c r="O171" s="20"/>
-      <c r="P171" s="20"/>
-      <c r="Q171"/>
-      <c r="R171"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="13"/>
+      <c r="O171" s="13"/>
+      <c r="P171" s="13"/>
     </row>
     <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B172" s="13"/>
-      <c r="J172"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="20"/>
-      <c r="N172" s="20"/>
-      <c r="O172" s="20"/>
-      <c r="P172" s="20"/>
-      <c r="Q172"/>
-      <c r="R172"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="18"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="8"/>
+      <c r="R172" s="8"/>
+      <c r="S172" s="18"/>
+      <c r="T172" s="8"/>
     </row>
     <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B173" s="13"/>
-      <c r="J173"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="20"/>
-      <c r="N173" s="20"/>
-      <c r="O173" s="20"/>
-      <c r="P173" s="20"/>
-      <c r="Q173"/>
-      <c r="R173"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="17"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="13"/>
+      <c r="M173" s="13"/>
+      <c r="N173" s="13"/>
+      <c r="O173" s="13"/>
+      <c r="P173" s="13"/>
     </row>
     <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="13"/>
-      <c r="E174" s="11"/>
-      <c r="G174" s="11"/>
       <c r="J174"/>
       <c r="K174" s="20"/>
       <c r="L174" s="20"/>
@@ -4997,8 +5226,6 @@
     </row>
     <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="13"/>
-      <c r="E175" s="11"/>
-      <c r="G175" s="11"/>
       <c r="J175"/>
       <c r="K175" s="20"/>
       <c r="L175" s="20"/>
@@ -5011,8 +5238,6 @@
     </row>
     <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B176" s="13"/>
-      <c r="E176" s="11"/>
-      <c r="G176" s="11"/>
       <c r="J176"/>
       <c r="K176" s="20"/>
       <c r="L176" s="20"/>
@@ -5024,49 +5249,63 @@
       <c r="R176"/>
     </row>
     <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B177" s="17"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="K177" s="13"/>
-      <c r="L177" s="13"/>
-      <c r="M177" s="13"/>
-      <c r="N177" s="13"/>
-      <c r="O177" s="13"/>
-      <c r="P177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="J177"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="20"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="20"/>
+      <c r="Q177"/>
+      <c r="R177"/>
     </row>
     <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="26"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
-      <c r="O178" s="13"/>
-      <c r="P178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="E178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="J178"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="20"/>
+      <c r="Q178"/>
+      <c r="R178"/>
     </row>
     <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="26"/>
-      <c r="M179" s="13"/>
-      <c r="N179" s="13"/>
-      <c r="O179" s="13"/>
-      <c r="P179" s="13"/>
+      <c r="B179" s="13"/>
+      <c r="E179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="J179"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="20"/>
+      <c r="O179" s="20"/>
+      <c r="P179" s="20"/>
+      <c r="Q179"/>
+      <c r="R179"/>
     </row>
     <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="K180" s="13"/>
-      <c r="L180" s="26"/>
-      <c r="M180" s="13"/>
-      <c r="N180" s="13"/>
-      <c r="O180" s="13"/>
-      <c r="P180" s="13"/>
+      <c r="B180" s="13"/>
+      <c r="E180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="J180"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="20"/>
+      <c r="N180" s="20"/>
+      <c r="O180" s="20"/>
+      <c r="P180" s="20"/>
+      <c r="Q180"/>
+      <c r="R180"/>
     </row>
     <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="14"/>
       <c r="B181" s="17"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
@@ -5074,11 +5313,11 @@
       <c r="O181" s="13"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="K182" s="13"/>
-      <c r="L182" s="13"/>
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="K182" s="25"/>
+      <c r="L182" s="26"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -5086,62 +5325,37 @@
     </row>
     <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
-      <c r="B183" s="17"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
-      <c r="K183" s="13"/>
-      <c r="L183" s="13"/>
+      <c r="B183" s="15"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="26"/>
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="18"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="15"/>
       <c r="K184" s="13"/>
-      <c r="L184" s="13"/>
+      <c r="L184" s="26"/>
       <c r="M184" s="13"/>
       <c r="N184" s="13"/>
       <c r="O184" s="13"/>
       <c r="P184" s="13"/>
     </row>
     <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="18"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="24"/>
-      <c r="I185" s="18"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="8"/>
-      <c r="R185" s="8"/>
-      <c r="S185" s="18"/>
-      <c r="T185" s="8"/>
-    </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-      <c r="J186" s="11"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="17"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="13"/>
+      <c r="M185" s="13"/>
+      <c r="N185" s="13"/>
+      <c r="O185" s="13"/>
+      <c r="P185" s="13"/>
+    </row>
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="14"/>
+      <c r="B186" s="15"/>
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
@@ -5150,56 +5364,69 @@
       <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="14"/>
       <c r="B187" s="17"/>
-      <c r="H187" s="28"/>
-      <c r="J187"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
-      <c r="N187" s="20"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="20"/>
-      <c r="Q187"/>
-      <c r="R187"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="13"/>
+      <c r="M187" s="13"/>
+      <c r="N187" s="13"/>
+      <c r="O187" s="13"/>
+      <c r="P187" s="13"/>
     </row>
     <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B188" s="17"/>
-      <c r="H188" s="28"/>
-      <c r="J188"/>
-      <c r="K188" s="20"/>
-      <c r="L188" s="20"/>
-      <c r="M188" s="20"/>
-      <c r="N188" s="20"/>
-      <c r="O188" s="20"/>
-      <c r="P188" s="20"/>
-      <c r="Q188"/>
-      <c r="R188"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
+      <c r="P188" s="13"/>
     </row>
     <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B189" s="17"/>
-      <c r="H189" s="28"/>
-      <c r="J189"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
-      <c r="Q189"/>
-      <c r="R189"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="24"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="8"/>
+      <c r="R189" s="8"/>
+      <c r="S189" s="18"/>
+      <c r="T189" s="8"/>
     </row>
     <row r="190" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="17"/>
       <c r="B190" s="17"/>
-      <c r="H190" s="28"/>
-      <c r="J190"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="20"/>
-      <c r="M190" s="20"/>
-      <c r="N190" s="20"/>
-      <c r="O190" s="20"/>
-      <c r="P190" s="20"/>
-      <c r="Q190"/>
-      <c r="R190"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="13"/>
+      <c r="L190" s="13"/>
+      <c r="M190" s="13"/>
+      <c r="N190" s="13"/>
+      <c r="O190" s="13"/>
+      <c r="P190" s="13"/>
     </row>
     <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B191" s="17"/>
@@ -5242,7 +5469,7 @@
     </row>
     <row r="194" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="17"/>
-      <c r="H194" s="11"/>
+      <c r="H194" s="28"/>
       <c r="J194"/>
       <c r="K194" s="20"/>
       <c r="L194" s="20"/>
@@ -5255,7 +5482,7 @@
     </row>
     <row r="195" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" s="17"/>
-      <c r="H195" s="11"/>
+      <c r="H195" s="28"/>
       <c r="J195"/>
       <c r="K195" s="20"/>
       <c r="L195" s="20"/>
@@ -5268,7 +5495,7 @@
     </row>
     <row r="196" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" s="17"/>
-      <c r="H196" s="11"/>
+      <c r="H196" s="28"/>
       <c r="J196"/>
       <c r="K196" s="20"/>
       <c r="L196" s="20"/>
@@ -5281,7 +5508,7 @@
     </row>
     <row r="197" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" s="17"/>
-      <c r="H197" s="11"/>
+      <c r="H197" s="28"/>
       <c r="J197"/>
       <c r="K197" s="20"/>
       <c r="L197" s="20"/>
@@ -5851,7 +6078,7 @@
       <c r="Q240"/>
       <c r="R240"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B241" s="17"/>
       <c r="H241" s="11"/>
       <c r="J241"/>
@@ -5864,7 +6091,7 @@
       <c r="Q241"/>
       <c r="R241"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B242" s="17"/>
       <c r="H242" s="11"/>
       <c r="J242"/>
@@ -5877,10 +6104,8 @@
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="29"/>
+    <row r="243" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B243" s="17"/>
-      <c r="G243" s="11"/>
       <c r="H243" s="11"/>
       <c r="J243"/>
       <c r="K243" s="20"/>
@@ -5892,10 +6117,8 @@
       <c r="Q243"/>
       <c r="R243"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B244" s="30"/>
-      <c r="D244" s="11"/>
-      <c r="G244" s="11"/>
+    <row r="244" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B244" s="17"/>
       <c r="H244" s="11"/>
       <c r="J244"/>
       <c r="K244" s="20"/>
@@ -5907,9 +6130,9 @@
       <c r="Q244"/>
       <c r="R244"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B245" s="17"/>
-      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
       <c r="J245"/>
       <c r="K245" s="20"/>
       <c r="L245" s="20"/>
@@ -5920,54 +6143,69 @@
       <c r="Q245"/>
       <c r="R245"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B246" s="17"/>
-      <c r="C246" s="11"/>
-      <c r="F246" s="11"/>
-      <c r="G246" s="11"/>
       <c r="H246" s="11"/>
-      <c r="I246" s="11"/>
-      <c r="K246" s="13"/>
-      <c r="L246" s="13"/>
-      <c r="M246" s="13"/>
-      <c r="N246" s="13"/>
-      <c r="O246" s="13"/>
-      <c r="P246" s="13"/>
-    </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="9"/>
-      <c r="B247" s="10"/>
-      <c r="C247" s="11"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="13"/>
-      <c r="N247" s="13"/>
-      <c r="O247" s="13"/>
-      <c r="P247" s="13"/>
-    </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="14"/>
-      <c r="B248" s="15"/>
-      <c r="K248" s="13"/>
-      <c r="L248" s="13"/>
-      <c r="M248" s="13"/>
-      <c r="N248" s="13"/>
-      <c r="O248" s="13"/>
-      <c r="P248" s="13"/>
-    </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="14"/>
-      <c r="B249" s="15"/>
-      <c r="K249" s="13"/>
-      <c r="L249" s="13"/>
-      <c r="M249" s="13"/>
-      <c r="N249" s="13"/>
-      <c r="O249" s="13"/>
-      <c r="P249" s="13"/>
-    </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="14"/>
-      <c r="B250" s="16"/>
+      <c r="J246"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="20"/>
+      <c r="N246" s="20"/>
+      <c r="O246" s="20"/>
+      <c r="P246" s="20"/>
+      <c r="Q246"/>
+      <c r="R246"/>
+    </row>
+    <row r="247" spans="1:18" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="29"/>
+      <c r="B247" s="17"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="J247"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
+      <c r="N247" s="20"/>
+      <c r="O247" s="20"/>
+      <c r="P247" s="20"/>
+      <c r="Q247"/>
+      <c r="R247"/>
+    </row>
+    <row r="248" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B248" s="30"/>
+      <c r="D248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="J248"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
+      <c r="N248" s="20"/>
+      <c r="O248" s="20"/>
+      <c r="P248" s="20"/>
+      <c r="Q248"/>
+      <c r="R248"/>
+    </row>
+    <row r="249" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B249" s="17"/>
+      <c r="G249" s="11"/>
+      <c r="J249"/>
+      <c r="K249" s="20"/>
+      <c r="L249" s="20"/>
+      <c r="M249" s="20"/>
+      <c r="N249" s="20"/>
+      <c r="O249" s="20"/>
+      <c r="P249" s="20"/>
+      <c r="Q249"/>
+      <c r="R249"/>
+    </row>
+    <row r="250" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B250" s="17"/>
+      <c r="C250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11"/>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
@@ -5975,9 +6213,10 @@
       <c r="O250" s="13"/>
       <c r="P250" s="13"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="14"/>
-      <c r="B251" s="15"/>
+    <row r="251" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="9"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="11"/>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
@@ -5985,12 +6224,9 @@
       <c r="O251" s="13"/>
       <c r="P251" s="13"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
-      <c r="B252" s="17"/>
-      <c r="H252" s="18"/>
-      <c r="I252" s="18"/>
-      <c r="J252" s="18"/>
+      <c r="B252" s="15"/>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
@@ -5998,17 +6234,9 @@
       <c r="O252" s="13"/>
       <c r="P252" s="13"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="18"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="18"/>
-      <c r="H253" s="11"/>
-      <c r="I253" s="11"/>
-      <c r="J253" s="11"/>
+    <row r="253" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="14"/>
+      <c r="B253" s="15"/>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
@@ -6016,100 +6244,95 @@
       <c r="O253" s="13"/>
       <c r="P253" s="13"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="18"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
-      <c r="H254" s="24"/>
-      <c r="I254" s="18"/>
-      <c r="J254" s="8"/>
-      <c r="K254" s="19"/>
-      <c r="L254" s="19"/>
-      <c r="M254" s="19"/>
-      <c r="N254" s="19"/>
-      <c r="O254" s="19"/>
-      <c r="P254" s="19"/>
-      <c r="Q254" s="8"/>
-      <c r="R254" s="8"/>
-      <c r="S254" s="18"/>
-      <c r="T254" s="8"/>
-    </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="17"/>
-      <c r="B255" s="17"/>
-      <c r="E255" s="11"/>
-      <c r="H255" s="11"/>
-      <c r="I255" s="11"/>
+    <row r="254" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="14"/>
+      <c r="B254" s="16"/>
+      <c r="K254" s="13"/>
+      <c r="L254" s="13"/>
+      <c r="M254" s="13"/>
+      <c r="N254" s="13"/>
+      <c r="O254" s="13"/>
+      <c r="P254" s="13"/>
+    </row>
+    <row r="255" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="14"/>
+      <c r="B255" s="15"/>
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
       <c r="P255" s="13"/>
-      <c r="T255"/>
-    </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="17"/>
-      <c r="J256"/>
-      <c r="K256" s="20"/>
-      <c r="L256" s="20"/>
-      <c r="M256" s="20"/>
-      <c r="N256" s="20"/>
-      <c r="O256" s="20"/>
-      <c r="P256" s="20"/>
-      <c r="Q256"/>
-      <c r="R256"/>
+    </row>
+    <row r="256" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="14"/>
+      <c r="B256" s="17"/>
+      <c r="H256" s="18"/>
+      <c r="I256" s="18"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="13"/>
+      <c r="L256" s="13"/>
+      <c r="M256" s="13"/>
+      <c r="N256" s="13"/>
+      <c r="O256" s="13"/>
+      <c r="P256" s="13"/>
     </row>
     <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="17"/>
-      <c r="J257"/>
-      <c r="K257" s="20"/>
-      <c r="L257" s="20"/>
-      <c r="M257" s="20"/>
-      <c r="N257" s="20"/>
-      <c r="O257" s="20"/>
-      <c r="P257" s="20"/>
-      <c r="Q257"/>
-      <c r="R257"/>
+      <c r="A257" s="18"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="13"/>
+      <c r="L257" s="13"/>
+      <c r="M257" s="13"/>
+      <c r="N257" s="13"/>
+      <c r="O257" s="13"/>
+      <c r="P257" s="13"/>
     </row>
     <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="14"/>
-      <c r="B258" s="17"/>
-      <c r="E258" s="11"/>
-      <c r="H258" s="11"/>
-      <c r="J258"/>
-      <c r="K258" s="20"/>
-      <c r="L258" s="20"/>
-      <c r="M258" s="20"/>
-      <c r="N258" s="20"/>
-      <c r="O258" s="20"/>
-      <c r="P258" s="20"/>
-      <c r="Q258"/>
-      <c r="R258"/>
+      <c r="A258" s="18"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="18"/>
+      <c r="H258" s="24"/>
+      <c r="I258" s="18"/>
+      <c r="J258" s="8"/>
+      <c r="K258" s="19"/>
+      <c r="L258" s="19"/>
+      <c r="M258" s="19"/>
+      <c r="N258" s="19"/>
+      <c r="O258" s="19"/>
+      <c r="P258" s="19"/>
+      <c r="Q258" s="8"/>
+      <c r="R258" s="8"/>
+      <c r="S258" s="18"/>
+      <c r="T258" s="8"/>
     </row>
     <row r="259" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="14"/>
+      <c r="A259" s="17"/>
       <c r="B259" s="17"/>
       <c r="E259" s="11"/>
       <c r="H259" s="11"/>
-      <c r="J259"/>
-      <c r="K259" s="20"/>
-      <c r="L259" s="20"/>
-      <c r="M259" s="20"/>
-      <c r="N259" s="20"/>
-      <c r="O259" s="20"/>
-      <c r="P259" s="20"/>
-      <c r="Q259"/>
-      <c r="R259"/>
+      <c r="I259" s="11"/>
+      <c r="K259" s="13"/>
+      <c r="L259" s="13"/>
+      <c r="M259" s="13"/>
+      <c r="N259" s="13"/>
+      <c r="O259" s="13"/>
+      <c r="P259" s="13"/>
+      <c r="T259"/>
     </row>
     <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="14"/>
-      <c r="B260" s="17"/>
-      <c r="H260" s="21"/>
+      <c r="A260" s="17"/>
       <c r="J260"/>
       <c r="K260" s="20"/>
       <c r="L260" s="20"/>
@@ -6121,14 +6344,7 @@
       <c r="R260"/>
     </row>
     <row r="261" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="22"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="22"/>
-      <c r="D261" s="22"/>
-      <c r="E261" s="22"/>
-      <c r="F261" s="22"/>
-      <c r="G261" s="22"/>
-      <c r="H261" s="23"/>
+      <c r="A261" s="17"/>
       <c r="J261"/>
       <c r="K261" s="20"/>
       <c r="L261" s="20"/>
@@ -6136,50 +6352,73 @@
       <c r="N261" s="20"/>
       <c r="O261" s="20"/>
       <c r="P261" s="20"/>
-      <c r="Q261" s="20"/>
+      <c r="Q261"/>
       <c r="R261"/>
     </row>
     <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="14"/>
       <c r="B262" s="17"/>
-      <c r="K262" s="13"/>
-      <c r="L262" s="13"/>
-      <c r="M262" s="13"/>
-      <c r="N262" s="13"/>
-      <c r="O262" s="13"/>
-      <c r="P262" s="13"/>
+      <c r="E262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="J262"/>
+      <c r="K262" s="20"/>
+      <c r="L262" s="20"/>
+      <c r="M262" s="20"/>
+      <c r="N262" s="20"/>
+      <c r="O262" s="20"/>
+      <c r="P262" s="20"/>
+      <c r="Q262"/>
+      <c r="R262"/>
     </row>
     <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="9"/>
-      <c r="B263" s="10"/>
-      <c r="K263" s="13"/>
-      <c r="L263" s="13"/>
-      <c r="M263" s="13"/>
-      <c r="N263" s="13"/>
-      <c r="O263" s="13"/>
-      <c r="P263" s="13"/>
+      <c r="A263" s="14"/>
+      <c r="B263" s="17"/>
+      <c r="E263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="J263"/>
+      <c r="K263" s="20"/>
+      <c r="L263" s="20"/>
+      <c r="M263" s="20"/>
+      <c r="N263" s="20"/>
+      <c r="O263" s="20"/>
+      <c r="P263" s="20"/>
+      <c r="Q263"/>
+      <c r="R263"/>
     </row>
     <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="14"/>
-      <c r="B264" s="15"/>
-      <c r="K264" s="13"/>
-      <c r="L264" s="13"/>
-      <c r="M264" s="13"/>
-      <c r="N264" s="13"/>
-      <c r="O264" s="13"/>
-      <c r="P264" s="13"/>
+      <c r="B264" s="17"/>
+      <c r="H264" s="21"/>
+      <c r="J264"/>
+      <c r="K264" s="20"/>
+      <c r="L264" s="20"/>
+      <c r="M264" s="20"/>
+      <c r="N264" s="20"/>
+      <c r="O264" s="20"/>
+      <c r="P264" s="20"/>
+      <c r="Q264"/>
+      <c r="R264"/>
     </row>
     <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="14"/>
-      <c r="B265" s="15"/>
-      <c r="K265" s="13"/>
-      <c r="L265" s="13"/>
-      <c r="M265" s="13"/>
-      <c r="N265" s="13"/>
-      <c r="O265" s="13"/>
-      <c r="P265" s="13"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
+      <c r="H265" s="23"/>
+      <c r="J265"/>
+      <c r="K265" s="20"/>
+      <c r="L265" s="20"/>
+      <c r="M265" s="20"/>
+      <c r="N265" s="20"/>
+      <c r="O265" s="20"/>
+      <c r="P265" s="20"/>
+      <c r="Q265" s="20"/>
+      <c r="R265"/>
     </row>
     <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="14"/>
       <c r="B266" s="17"/>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
@@ -6189,8 +6428,8 @@
       <c r="P266" s="13"/>
     </row>
     <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="14"/>
-      <c r="B267" s="15"/>
+      <c r="A267" s="9"/>
+      <c r="B267" s="10"/>
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
@@ -6200,7 +6439,7 @@
     </row>
     <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="14"/>
-      <c r="B268" s="17"/>
+      <c r="B268" s="15"/>
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
@@ -6209,16 +6448,8 @@
       <c r="P268" s="13"/>
     </row>
     <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="18"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
-      <c r="H269" s="18"/>
-      <c r="I269" s="18"/>
-      <c r="J269" s="18"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="15"/>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
@@ -6227,30 +6458,18 @@
       <c r="P269" s="13"/>
     </row>
     <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="18"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="24"/>
-      <c r="F270" s="18"/>
-      <c r="G270" s="18"/>
-      <c r="H270" s="24"/>
-      <c r="I270" s="18"/>
-      <c r="J270" s="8"/>
-      <c r="K270" s="19"/>
-      <c r="L270" s="19"/>
-      <c r="M270" s="19"/>
-      <c r="N270" s="19"/>
-      <c r="O270" s="19"/>
-      <c r="P270" s="19"/>
-      <c r="Q270" s="8"/>
-      <c r="R270" s="8"/>
-      <c r="S270" s="18"/>
-      <c r="T270" s="8"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="17"/>
+      <c r="K270" s="13"/>
+      <c r="L270" s="13"/>
+      <c r="M270" s="13"/>
+      <c r="N270" s="13"/>
+      <c r="O270" s="13"/>
+      <c r="P270" s="13"/>
     </row>
     <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="17"/>
-      <c r="B271" s="17"/>
+      <c r="A271" s="14"/>
+      <c r="B271" s="15"/>
       <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
@@ -6259,54 +6478,66 @@
       <c r="P271" s="13"/>
     </row>
     <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B272" s="13"/>
-      <c r="J272"/>
-      <c r="K272" s="20"/>
-      <c r="L272" s="20"/>
-      <c r="M272" s="20"/>
-      <c r="N272" s="20"/>
-      <c r="O272" s="20"/>
-      <c r="P272" s="20"/>
-      <c r="Q272"/>
-      <c r="R272"/>
-    </row>
-    <row r="273" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B273" s="13"/>
-      <c r="J273"/>
-      <c r="K273" s="20"/>
-      <c r="L273" s="20"/>
-      <c r="M273" s="20"/>
-      <c r="N273" s="20"/>
-      <c r="O273" s="20"/>
-      <c r="P273" s="20"/>
-      <c r="Q273"/>
-      <c r="R273"/>
-    </row>
-    <row r="274" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B274" s="13"/>
-      <c r="J274"/>
-      <c r="K274" s="20"/>
-      <c r="L274" s="20"/>
-      <c r="M274" s="20"/>
-      <c r="N274" s="20"/>
-      <c r="O274" s="20"/>
-      <c r="P274" s="20"/>
-      <c r="Q274"/>
-      <c r="R274"/>
-    </row>
-    <row r="275" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B275" s="13"/>
-      <c r="J275"/>
-      <c r="K275" s="20"/>
-      <c r="L275" s="20"/>
-      <c r="M275" s="20"/>
-      <c r="N275" s="20"/>
-      <c r="O275" s="20"/>
-      <c r="P275" s="20"/>
-      <c r="Q275"/>
-      <c r="R275"/>
-    </row>
-    <row r="276" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="14"/>
+      <c r="B272" s="17"/>
+      <c r="K272" s="13"/>
+      <c r="L272" s="13"/>
+      <c r="M272" s="13"/>
+      <c r="N272" s="13"/>
+      <c r="O272" s="13"/>
+      <c r="P272" s="13"/>
+    </row>
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="18"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="18"/>
+      <c r="H273" s="18"/>
+      <c r="I273" s="18"/>
+      <c r="J273" s="18"/>
+      <c r="K273" s="13"/>
+      <c r="L273" s="13"/>
+      <c r="M273" s="13"/>
+      <c r="N273" s="13"/>
+      <c r="O273" s="13"/>
+      <c r="P273" s="13"/>
+    </row>
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="18"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="24"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="18"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="18"/>
+      <c r="J274" s="8"/>
+      <c r="K274" s="19"/>
+      <c r="L274" s="19"/>
+      <c r="M274" s="19"/>
+      <c r="N274" s="19"/>
+      <c r="O274" s="19"/>
+      <c r="P274" s="19"/>
+      <c r="Q274" s="8"/>
+      <c r="R274" s="8"/>
+      <c r="S274" s="18"/>
+      <c r="T274" s="8"/>
+    </row>
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="17"/>
+      <c r="B275" s="17"/>
+      <c r="K275" s="13"/>
+      <c r="L275" s="13"/>
+      <c r="M275" s="13"/>
+      <c r="N275" s="13"/>
+      <c r="O275" s="13"/>
+      <c r="P275" s="13"/>
+    </row>
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B276" s="13"/>
       <c r="J276"/>
       <c r="K276" s="20"/>
@@ -6318,7 +6549,7 @@
       <c r="Q276"/>
       <c r="R276"/>
     </row>
-    <row r="277" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="J277"/>
       <c r="K277" s="20"/>
@@ -6330,7 +6561,7 @@
       <c r="Q277"/>
       <c r="R277"/>
     </row>
-    <row r="278" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="J278"/>
       <c r="K278" s="20"/>
@@ -6342,7 +6573,7 @@
       <c r="Q278"/>
       <c r="R278"/>
     </row>
-    <row r="279" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="13"/>
       <c r="J279"/>
       <c r="K279" s="20"/>
@@ -6354,7 +6585,7 @@
       <c r="Q279"/>
       <c r="R279"/>
     </row>
-    <row r="280" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="13"/>
       <c r="J280"/>
       <c r="K280" s="20"/>
@@ -6366,7 +6597,7 @@
       <c r="Q280"/>
       <c r="R280"/>
     </row>
-    <row r="281" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="13"/>
       <c r="J281"/>
       <c r="K281" s="20"/>
@@ -6378,7 +6609,7 @@
       <c r="Q281"/>
       <c r="R281"/>
     </row>
-    <row r="282" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="13"/>
       <c r="J282"/>
       <c r="K282" s="20"/>
@@ -6390,7 +6621,7 @@
       <c r="Q282"/>
       <c r="R282"/>
     </row>
-    <row r="283" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="13"/>
       <c r="J283"/>
       <c r="K283" s="20"/>
@@ -6402,7 +6633,7 @@
       <c r="Q283"/>
       <c r="R283"/>
     </row>
-    <row r="284" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="13"/>
       <c r="J284"/>
       <c r="K284" s="20"/>
@@ -6414,7 +6645,7 @@
       <c r="Q284"/>
       <c r="R284"/>
     </row>
-    <row r="285" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="13"/>
       <c r="J285"/>
       <c r="K285" s="20"/>
@@ -6426,7 +6657,7 @@
       <c r="Q285"/>
       <c r="R285"/>
     </row>
-    <row r="286" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="13"/>
       <c r="J286"/>
       <c r="K286" s="20"/>
@@ -6438,7 +6669,7 @@
       <c r="Q286"/>
       <c r="R286"/>
     </row>
-    <row r="287" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="13"/>
       <c r="J287"/>
       <c r="K287" s="20"/>
@@ -6450,50 +6681,58 @@
       <c r="Q287"/>
       <c r="R287"/>
     </row>
-    <row r="288" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="13"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
-      <c r="K288" s="13"/>
-      <c r="L288" s="13"/>
-      <c r="M288" s="13"/>
-      <c r="N288" s="13"/>
-      <c r="O288" s="13"/>
-      <c r="P288" s="13"/>
+      <c r="J288"/>
+      <c r="K288" s="20"/>
+      <c r="L288" s="20"/>
+      <c r="M288" s="20"/>
+      <c r="N288" s="20"/>
+      <c r="O288" s="20"/>
+      <c r="P288" s="20"/>
+      <c r="Q288"/>
+      <c r="R288"/>
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="9"/>
-      <c r="B289" s="10"/>
-      <c r="K289" s="25"/>
-      <c r="L289" s="26"/>
-      <c r="M289" s="13"/>
-      <c r="N289" s="13"/>
-      <c r="O289" s="13"/>
-      <c r="P289" s="13"/>
+      <c r="B289" s="13"/>
+      <c r="J289"/>
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="20"/>
+      <c r="N289" s="20"/>
+      <c r="O289" s="20"/>
+      <c r="P289" s="20"/>
+      <c r="Q289"/>
+      <c r="R289"/>
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="14"/>
-      <c r="B290" s="15"/>
-      <c r="K290" s="27"/>
-      <c r="L290" s="26"/>
-      <c r="M290" s="13"/>
-      <c r="N290" s="13"/>
-      <c r="O290" s="13"/>
-      <c r="P290" s="13"/>
+      <c r="B290" s="13"/>
+      <c r="J290"/>
+      <c r="K290" s="20"/>
+      <c r="L290" s="20"/>
+      <c r="M290" s="20"/>
+      <c r="N290" s="20"/>
+      <c r="O290" s="20"/>
+      <c r="P290" s="20"/>
+      <c r="Q290"/>
+      <c r="R290"/>
     </row>
     <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="14"/>
-      <c r="B291" s="15"/>
-      <c r="K291" s="13"/>
-      <c r="L291" s="26"/>
-      <c r="M291" s="13"/>
-      <c r="N291" s="13"/>
-      <c r="O291" s="13"/>
-      <c r="P291" s="13"/>
+      <c r="B291" s="13"/>
+      <c r="J291"/>
+      <c r="K291" s="20"/>
+      <c r="L291" s="20"/>
+      <c r="M291" s="20"/>
+      <c r="N291" s="20"/>
+      <c r="O291" s="20"/>
+      <c r="P291" s="20"/>
+      <c r="Q291"/>
+      <c r="R291"/>
     </row>
     <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="14"/>
-      <c r="B292" s="17"/>
+      <c r="B292" s="13"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="13"/>
@@ -6501,11 +6740,11 @@
       <c r="O292" s="13"/>
       <c r="P292" s="13"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="14"/>
-      <c r="B293" s="15"/>
-      <c r="K293" s="13"/>
-      <c r="L293" s="13"/>
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="9"/>
+      <c r="B293" s="10"/>
+      <c r="K293" s="25"/>
+      <c r="L293" s="26"/>
       <c r="M293" s="13"/>
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
@@ -6513,62 +6752,37 @@
     </row>
     <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="14"/>
-      <c r="B294" s="17"/>
-      <c r="H294" s="18"/>
-      <c r="I294" s="18"/>
-      <c r="K294" s="13"/>
-      <c r="L294" s="13"/>
+      <c r="B294" s="15"/>
+      <c r="K294" s="27"/>
+      <c r="L294" s="26"/>
       <c r="M294" s="13"/>
       <c r="N294" s="13"/>
       <c r="O294" s="13"/>
       <c r="P294" s="13"/>
     </row>
     <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="18"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18"/>
-      <c r="H295" s="11"/>
-      <c r="I295" s="11"/>
+      <c r="A295" s="14"/>
+      <c r="B295" s="15"/>
       <c r="K295" s="13"/>
-      <c r="L295" s="13"/>
+      <c r="L295" s="26"/>
       <c r="M295" s="13"/>
       <c r="N295" s="13"/>
       <c r="O295" s="13"/>
       <c r="P295" s="13"/>
     </row>
     <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="18"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="18"/>
-      <c r="G296" s="18"/>
-      <c r="H296" s="24"/>
-      <c r="I296" s="18"/>
-      <c r="J296" s="8"/>
-      <c r="K296" s="19"/>
-      <c r="L296" s="19"/>
-      <c r="M296" s="19"/>
-      <c r="N296" s="19"/>
-      <c r="O296" s="19"/>
-      <c r="P296" s="19"/>
-      <c r="Q296" s="8"/>
-      <c r="R296" s="8"/>
-      <c r="S296" s="18"/>
-      <c r="T296" s="8"/>
-    </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="17"/>
-      <c r="B297" s="17"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="11"/>
-      <c r="I297" s="11"/>
-      <c r="J297" s="11"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="17"/>
+      <c r="K296" s="13"/>
+      <c r="L296" s="13"/>
+      <c r="M296" s="13"/>
+      <c r="N296" s="13"/>
+      <c r="O296" s="13"/>
+      <c r="P296" s="13"/>
+    </row>
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="14"/>
+      <c r="B297" s="15"/>
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
@@ -6577,65 +6791,72 @@
       <c r="P297" s="13"/>
     </row>
     <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B298" s="13"/>
-      <c r="H298" s="11"/>
-      <c r="J298"/>
-      <c r="K298" s="20"/>
-      <c r="L298" s="20"/>
-      <c r="M298" s="20"/>
-      <c r="N298" s="20"/>
-      <c r="O298" s="20"/>
-      <c r="P298" s="20"/>
-      <c r="Q298"/>
-      <c r="R298"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="17"/>
+      <c r="H298" s="18"/>
+      <c r="I298" s="18"/>
+      <c r="K298" s="13"/>
+      <c r="L298" s="13"/>
+      <c r="M298" s="13"/>
+      <c r="N298" s="13"/>
+      <c r="O298" s="13"/>
+      <c r="P298" s="13"/>
     </row>
     <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B299" s="13"/>
+      <c r="A299" s="18"/>
+      <c r="B299" s="10"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="18"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="18"/>
       <c r="H299" s="11"/>
-      <c r="J299"/>
-      <c r="K299" s="20"/>
-      <c r="L299" s="20"/>
-      <c r="M299" s="20"/>
-      <c r="N299" s="20"/>
-      <c r="O299" s="20"/>
-      <c r="P299" s="20"/>
-      <c r="Q299"/>
-      <c r="R299"/>
+      <c r="I299" s="11"/>
+      <c r="K299" s="13"/>
+      <c r="L299" s="13"/>
+      <c r="M299" s="13"/>
+      <c r="N299" s="13"/>
+      <c r="O299" s="13"/>
+      <c r="P299" s="13"/>
     </row>
     <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="17"/>
-      <c r="B300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="11"/>
-      <c r="J300"/>
-      <c r="K300" s="20"/>
-      <c r="L300" s="20"/>
-      <c r="M300" s="20"/>
-      <c r="N300" s="20"/>
-      <c r="O300" s="20"/>
-      <c r="P300" s="20"/>
-      <c r="Q300"/>
-      <c r="R300"/>
+      <c r="A300" s="18"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="18"/>
+      <c r="E300" s="24"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="24"/>
+      <c r="I300" s="18"/>
+      <c r="J300" s="8"/>
+      <c r="K300" s="19"/>
+      <c r="L300" s="19"/>
+      <c r="M300" s="19"/>
+      <c r="N300" s="19"/>
+      <c r="O300" s="19"/>
+      <c r="P300" s="19"/>
+      <c r="Q300" s="8"/>
+      <c r="R300" s="8"/>
+      <c r="S300" s="18"/>
+      <c r="T300" s="8"/>
     </row>
     <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="17"/>
       <c r="B301" s="17"/>
       <c r="G301" s="17"/>
       <c r="H301" s="11"/>
-      <c r="J301"/>
-      <c r="K301" s="20"/>
-      <c r="L301" s="20"/>
-      <c r="M301" s="20"/>
-      <c r="N301" s="20"/>
-      <c r="O301" s="20"/>
-      <c r="P301" s="20"/>
-      <c r="Q301"/>
-      <c r="R301"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="13"/>
+      <c r="L301" s="13"/>
+      <c r="M301" s="13"/>
+      <c r="N301" s="13"/>
+      <c r="O301" s="13"/>
+      <c r="P301" s="13"/>
     </row>
     <row r="302" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="17"/>
-      <c r="B302" s="17"/>
-      <c r="G302" s="17"/>
+      <c r="B302" s="13"/>
       <c r="H302" s="11"/>
       <c r="J302"/>
       <c r="K302" s="20"/>
@@ -6648,9 +6869,7 @@
       <c r="R302"/>
     </row>
     <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="17"/>
-      <c r="B303" s="17"/>
-      <c r="G303" s="17"/>
+      <c r="B303" s="13"/>
       <c r="H303" s="11"/>
       <c r="J303"/>
       <c r="K303" s="20"/>
@@ -7518,7 +7737,10 @@
       <c r="R360"/>
     </row>
     <row r="361" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B361" s="13"/>
+      <c r="A361" s="17"/>
+      <c r="B361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="H361" s="11"/>
       <c r="J361"/>
       <c r="K361" s="20"/>
       <c r="L361" s="20"/>
@@ -7530,15 +7752,72 @@
       <c r="R361"/>
     </row>
     <row r="362" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="17"/>
       <c r="B362" s="17"/>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
-      <c r="K362" s="13"/>
-      <c r="L362" s="13"/>
-      <c r="M362" s="13"/>
-      <c r="N362" s="13"/>
-      <c r="O362" s="13"/>
-      <c r="P362" s="13"/>
+      <c r="G362" s="17"/>
+      <c r="H362" s="11"/>
+      <c r="J362"/>
+      <c r="K362" s="20"/>
+      <c r="L362" s="20"/>
+      <c r="M362" s="20"/>
+      <c r="N362" s="20"/>
+      <c r="O362" s="20"/>
+      <c r="P362" s="20"/>
+      <c r="Q362"/>
+      <c r="R362"/>
+    </row>
+    <row r="363" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="17"/>
+      <c r="B363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="H363" s="11"/>
+      <c r="J363"/>
+      <c r="K363" s="20"/>
+      <c r="L363" s="20"/>
+      <c r="M363" s="20"/>
+      <c r="N363" s="20"/>
+      <c r="O363" s="20"/>
+      <c r="P363" s="20"/>
+      <c r="Q363"/>
+      <c r="R363"/>
+    </row>
+    <row r="364" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="17"/>
+      <c r="B364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="H364" s="11"/>
+      <c r="J364"/>
+      <c r="K364" s="20"/>
+      <c r="L364" s="20"/>
+      <c r="M364" s="20"/>
+      <c r="N364" s="20"/>
+      <c r="O364" s="20"/>
+      <c r="P364" s="20"/>
+      <c r="Q364"/>
+      <c r="R364"/>
+    </row>
+    <row r="365" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B365" s="13"/>
+      <c r="J365"/>
+      <c r="K365" s="20"/>
+      <c r="L365" s="20"/>
+      <c r="M365" s="20"/>
+      <c r="N365" s="20"/>
+      <c r="O365" s="20"/>
+      <c r="P365" s="20"/>
+      <c r="Q365"/>
+      <c r="R365"/>
+    </row>
+    <row r="366" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B366" s="17"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
+      <c r="K366" s="13"/>
+      <c r="L366" s="13"/>
+      <c r="M366" s="13"/>
+      <c r="N366" s="13"/>
+      <c r="O366" s="13"/>
+      <c r="P366" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
